--- a/tests/data/articles.xlsx
+++ b/tests/data/articles.xlsx
@@ -14,67 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
-  <si>
-    <t>The Role of Exercise in Mental Health</t>
-  </si>
-  <si>
-    <t>The Effectiveness of Sleep</t>
-  </si>
-  <si>
-    <t>The Importance of Self-Care</t>
-  </si>
-  <si>
-    <t>The Benefits of Meditation</t>
-  </si>
-  <si>
-    <t>The Power of Positive Thinking</t>
-  </si>
-  <si>
-    <t>The Importance of a Growth Mindset</t>
-  </si>
-  <si>
-    <t>The Benefits of a Positive Attitude</t>
-  </si>
-  <si>
-    <t>The Power of Gratitude</t>
-  </si>
-  <si>
-    <t>The Role of Social Media in Our Lives</t>
-  </si>
-  <si>
-    <t>The Effectiveness of a Healthy Diet</t>
-  </si>
-  <si>
-    <t>The Impact of Social Media on Mental Health</t>
-  </si>
-  <si>
-    <t>The Benefits of Meditation for Mental Health</t>
-  </si>
-  <si>
-    <t>The Effectiveness of Exercise for Mental Health</t>
-  </si>
-  <si>
-    <t>The Relationship between Sleep and Mental Health</t>
-  </si>
-  <si>
-    <t>The Importance of Self-Care for Mental Health</t>
-  </si>
-  <si>
-    <t>The Role of Technology in Mental Health</t>
-  </si>
-  <si>
-    <t>The Impact of Social Media on Physical Health</t>
-  </si>
-  <si>
-    <t>The Benefits of Exercise for Physical Health</t>
-  </si>
-  <si>
-    <t>The Effectiveness of Meditation for Physical Health</t>
-  </si>
-  <si>
-    <t>The Relationship between Exercise and Physical Health</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>The Legend of Zelda: Breath of the Wild</t>
   </si>
@@ -134,6 +74,36 @@
   </si>
   <si>
     <t>strategy</t>
+  </si>
+  <si>
+    <t>The Ultimate Gaming Masterclass</t>
+  </si>
+  <si>
+    <t>100 Greatest Video Games of All Time</t>
+  </si>
+  <si>
+    <t>The Best Gaming PC Builds of 2021</t>
+  </si>
+  <si>
+    <t>The 5 Best Gaming Streaming Services of 2021</t>
+  </si>
+  <si>
+    <t>The Top 10 Gaming Streaming Devices of 2021</t>
+  </si>
+  <si>
+    <t>The Best Gaming Laptops of 2021</t>
+  </si>
+  <si>
+    <t>The 5 Best Gaming Chairs of 2021</t>
+  </si>
+  <si>
+    <t>The Top 10 Gaming Headsets of 2021</t>
+  </si>
+  <si>
+    <t>The Best Gaming Keyboards of 2021</t>
+  </si>
+  <si>
+    <t>The 5 Best Gaming Mouses of 2021</t>
   </si>
 </sst>
 </file>
@@ -490,155 +460,155 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1"/>
-    <col min="2" max="2" width="36.140625" customWidth="1"/>
+    <col min="1" max="1" width="57.7109375" customWidth="1"/>
+    <col min="2" max="2" width="66.7109375" customWidth="1"/>
     <col min="3" max="3" width="37.5703125" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D8" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" t="s">
         <v>18</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="D10" t="s">
         <v>19</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
